--- a/MeOcer APIs(HTTP).xlsx
+++ b/MeOcer APIs(HTTP).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="22056" windowHeight="9264" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="22056" windowHeight="9264" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="6" r:id="rId1"/>
@@ -1527,10 +1527,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/m-home/rest/v1/flows/me/device/{deviceId}/{flowId}/actives</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数说明见《设备功能码定义》
 MeBox：0002 添加场景中对场景参数的描述</t>
   </si>
@@ -1840,87 +1836,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>automatic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": {
-        "enable": true,
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>commands</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": [
-            {
-                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmdName</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "open",
-                "cmdCode": "0001",
-                "enable": true
-            }
-        ]
-    }
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-    "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -1961,59 +1876,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>": "CLOSE"
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-    "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>description</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "反馈信息",
-    "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>email</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "邮箱地址"
 }</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6218,6 +6080,100 @@
         }
     }
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "type": "xxxx-device-uuid-xxxx",
+    "name": "设备名称",
+    "description": "反馈信息",
+    "email": "邮箱地址"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/m-home/rest/v1/flows/me/device/{deviceId}/{flowId}/actives</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>automatic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": {
+        "enable": true,
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commands</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": [
+            {
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmdName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "open",
+                "cmdCode": "0001",
+                "enable": true
+            }
+        ]
+    }
+}</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6922,7 +6878,7 @@
         <v>55</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C3" s="20"/>
     </row>
@@ -7012,22 +6968,22 @@
     </row>
     <row r="3" spans="1:10" ht="172.8">
       <c r="A3" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="10"/>
@@ -7035,7 +6991,7 @@
         <v>200</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -7118,7 +7074,7 @@
     </row>
     <row r="3" spans="1:10" ht="129.6">
       <c r="A3" s="29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>35</v>
@@ -7151,7 +7107,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>68</v>
@@ -7175,7 +7131,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>59</v>
@@ -7183,7 +7139,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I5" s="8">
         <v>200</v>
@@ -7277,17 +7233,17 @@
         <v>5</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>67</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I9" s="8">
         <v>200</v>
@@ -7297,13 +7253,13 @@
     <row r="10" spans="1:10" ht="409.6">
       <c r="A10" s="30"/>
       <c r="B10" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>50</v>
@@ -7317,19 +7273,19 @@
         <v>200</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="57.6">
       <c r="A11" s="15"/>
       <c r="B11" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>50</v>
@@ -7339,7 +7295,7 @@
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I11" s="8">
         <v>200</v>
@@ -7646,7 +7602,7 @@
     </row>
     <row r="3" spans="1:13" ht="93" customHeight="1">
       <c r="A3" s="31" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>11</v>
@@ -7655,14 +7611,14 @@
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8">
@@ -7681,7 +7637,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>59</v>
@@ -7695,7 +7651,7 @@
         <v>200</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="316.8">
@@ -7707,7 +7663,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>59</v>
@@ -7715,13 +7671,13 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I5" s="8">
         <v>201</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="172.8">
@@ -7733,7 +7689,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>59</v>
@@ -7743,13 +7699,13 @@
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I6" s="8">
         <v>200</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="28.8">
@@ -7761,7 +7717,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>59</v>
@@ -7779,13 +7735,13 @@
     <row r="8" spans="1:13" ht="187.2">
       <c r="A8" s="32"/>
       <c r="B8" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>59</v>
@@ -7793,13 +7749,13 @@
       <c r="F8" s="11"/>
       <c r="G8" s="8"/>
       <c r="H8" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I8" s="8">
         <v>200</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="187.2">
@@ -7811,23 +7767,23 @@
         <v>3</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I9" s="8">
         <v>200</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="302.39999999999998">
@@ -7853,16 +7809,16 @@
         <v>200</v>
       </c>
       <c r="J10" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="K10" s="21" t="s">
-        <v>131</v>
-      </c>
       <c r="L10" s="21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="158.4">
@@ -7874,10 +7830,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>73</v>
@@ -7888,19 +7844,19 @@
         <v>200</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="374.4">
       <c r="A12" s="32"/>
       <c r="B12" s="26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>59</v>
@@ -7909,7 +7865,7 @@
         <v>200</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -7928,8 +7884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="E5" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7997,13 +7953,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>59</v>
@@ -8017,7 +7973,7 @@
         <v>200</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K3" s="21" t="s">
         <v>91</v>
@@ -8026,13 +7982,13 @@
     <row r="4" spans="1:11" ht="409.6">
       <c r="A4" s="33"/>
       <c r="B4" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>59</v>
@@ -8046,7 +8002,7 @@
         <v>200</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="374.4">
@@ -8068,7 +8024,7 @@
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I5" s="8">
         <v>200</v>
@@ -8092,11 +8048,11 @@
         <v>59</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I6" s="8">
         <v>200</v>
@@ -8118,7 +8074,7 @@
         <v>59</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -8136,17 +8092,17 @@
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>95</v>
+        <v>206</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="10" t="s">
-        <v>112</v>
+        <v>207</v>
       </c>
       <c r="I8" s="8">
         <v>200</v>
@@ -8235,16 +8191,16 @@
     </row>
     <row r="3" spans="1:11" ht="409.6">
       <c r="A3" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>59</v>
@@ -8256,28 +8212,28 @@
         <v>200</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="409.6">
       <c r="A4" s="32"/>
       <c r="B4" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -8285,19 +8241,19 @@
         <v>200</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="403.2">
       <c r="A5" s="32"/>
       <c r="B5" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>59</v>
@@ -8305,59 +8261,59 @@
       <c r="F5" s="11"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I5" s="8">
         <v>200</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="302.39999999999998">
       <c r="A6" s="32"/>
       <c r="B6" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I6" s="8">
         <v>200</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="129.6">
       <c r="A7" s="32"/>
       <c r="B7" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -8365,25 +8321,25 @@
         <v>200</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="129.6">
       <c r="A8" s="32"/>
       <c r="B8" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="10"/>
@@ -8391,35 +8347,35 @@
         <v>200</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="129.6">
       <c r="A9" s="32"/>
       <c r="B9" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="8">
         <v>200</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -8489,7 +8445,7 @@
         <v>47</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>43</v>
@@ -8504,53 +8460,53 @@
     <row r="3" spans="1:10" ht="360">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <v>200</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="360">
       <c r="A4" s="4"/>
       <c r="B4" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8">
         <v>200</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="360">
@@ -8564,21 +8520,21 @@
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8">
         <v>200</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="230.4">
@@ -8590,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>59</v>
@@ -8650,7 +8606,7 @@
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I8" s="8">
         <v>200</v>
@@ -8673,7 +8629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
@@ -8741,16 +8697,16 @@
         <v>48</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="374.4">
+    <row r="3" spans="1:13" ht="345.6">
       <c r="A3" s="14" t="s">
         <v>31</v>
       </c>
@@ -8767,7 +8723,7 @@
         <v>59</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I3" s="7">
         <v>200</v>
@@ -8776,13 +8732,13 @@
         <v>80</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L3" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -8805,7 +8761,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8816,7 +8772,7 @@
     <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.5546875" customWidth="1"/>
+    <col min="8" max="8" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1">
@@ -8865,7 +8821,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="57.6">
+    <row r="3" spans="1:10" ht="86.4">
       <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
@@ -8884,7 +8840,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="10" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="I3" s="8">
         <v>200</v>
@@ -8991,16 +8947,16 @@
     </row>
     <row r="4" spans="1:10" s="8" customFormat="1" ht="303.60000000000002">
       <c r="A4" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>180</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>183</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>59</v>
@@ -9010,21 +8966,21 @@
         <v>200</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="8" customFormat="1" ht="290.39999999999998">
       <c r="A5" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>59</v>
@@ -9034,7 +8990,7 @@
         <v>200</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/MeOcer APIs(HTTP).xlsx
+++ b/MeOcer APIs(HTTP).xlsx
@@ -3739,6 +3739,1930 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>{
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>timerId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>":"xxxx-timer-uuid-xxxx"
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "PARALLEL",
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "每天",
+/*
+*自定义执行：0016080C0000
+*单次执行:0016080C0001
+*重复执行：0016080C0002
+*/
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>":"0016080C0002",//
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>":true,
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": 0,
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>between</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": ["08:00", "12:00"],
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>weekday</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": [0, 1, 2, 3, 4, 5, 6],
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commands</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": [
+            {
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uuid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "xxxx-device-uuid-xxxx",
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deviceType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "",
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>":true,
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": {
+                    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmdCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "0001",
+                    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmdName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "open",
+                    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parameters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": {}
+                }
+            }
+        ]
+    }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "PARALLEL",
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "timer",
+/*
+*自定义执行：0016080C0000
+*单次执行:0016080C0001
+*重复执行：0016080C0002
+*/
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>":"0016080C0002",//
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": true,
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": 0,
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>between</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": ["08:00", "12:00"],
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>weekday</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": [0, 1, 2, 3, 4, 5, 6],
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commands</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": [
+            {
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uuid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "xxxx-device-uuid-xxxx",
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deviceType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "",
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": true,
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": {
+                    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmdCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "0001",
+                    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmdName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "open",
+                    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parameters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": {}
+                }
+            }
+        ]
+    }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "weiwiz": {
+        "MHome": {
+            "response": {
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmdName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "",
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmdCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "",
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": {}
+            },
+            "errorId": "",
+            "errorMsg": ""
+        }
+    }
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    "weiwiz": {
+        "MHome": {
+            "response": {
+                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;deviceInfo&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+            },
+            "errorId": "",
+            "errorMsg": ""
+        }
+    }
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/m-home/rest/v1/devices/me/{deviceId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "weiwiz": {
+        "MHome": {
+            "response": {
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>automatics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">": [
+                    {
+                        "sceneId": "xxxx-scene-uuid-xxxx",
+                        "mode": "PARALLEL",
+                        "name": "回家",
+                        "type": "0016080B0001",
+                        "description": "一切都为你准备好了",
+                        "commands": [
+                            {
+                                "uuid": "xxxx-device-uuid-xxxx",
+                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"description": "打开设备",
+                                "deviceName":"MeReceiver-LN-1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                "deviceType": "",
+                                "cmd": {
+                                    "cmdCode": "0001",
+                                    "cmdName": "open",
+                                    "parameters": {}
+                                }
+                            }
+                        ]
+                    }
+                ]
+            },
+            "errorId": "",
+            "errorMsg": ""
+        }
+    }
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "PARALLEL",//场景模式目前固定为PARALLEL，并行模式
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "回家",
+    /*
+    *0016080B0000:用户自定义场景
+    *0016080B0001:系统场景-回家
+    *0016080B0002:系统场景-离家
+    *0016080B0003:系统场景-起床
+    *0016080B0004:系统场景-睡觉
+    */
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "0016080B0000",
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "一切已经为你准备好了",
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>notify</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>":true,//默认为true
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commands</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": [
+        {
+            "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uuid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "xxxx-device-uuid-xxxx",
+            "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deviceType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "",
+            "description": "打开设备", 
+            "deviceName":"MeReceiver-LN-1"
+            "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": {
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmdCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "0001",
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmdName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "open",
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parameters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": {}
+            }
+        }
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sceneId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "xxxx-scene-uuid-xxxx",
+    "mode": "PARALLEL",
+    "name": "回家",
+    "type": "0016080B0000",
+    "description": "一切都为你准备好了",
+    "notify":true,
+    "commands": [
+        {
+            "uuid": "xxxx-device-uuid-xxxx",
+            "deviceType": "",
+            "description": "打开设备", 
+            "deviceName":"MeReceiver-LN-1"
+            "cmd": {
+                "cmdCode": "0001",
+                "cmdName": "open",
+                "parameters": {}
+            }
+        }
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/m-home/rest/v1/services/energy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+ "icons":{
+  "Grip":1,   // 1:空闲,2:取电，3：发电
+  "MeRFCT":1,  // 0:无设备,1:设备正常，2：设备异常
+  "PV":0,   // 0:无设备,1:设备正常
+  "MeInverter":0, // 0:无设备,1:设备正常, 2:设备异常
+  "MeStroage":0, // 0:无设备,1:设备正常, 2:设备异常
+  "MeStroageBattery":80, //设备充电百分比 
+  "MeBoost":1,     // 0:无设备,1:设备正常, 2:设备异常
+  "Load":0,  // 0:无负载,1:仅热水器负载, 2:仅其他家庭负载，3：全负载
+ },
+ "lines":{
+  "G2R":0,  // 0:空闲,1:电网取电，2：太阳能发电
+  "R2L":0,  // 0:空闲,1:电网取电，2：太阳能取电
+  "PV2I":0,  // 0:空闲,1：太阳能发电
+  "PV2S":0,  // 0:空闲,1:太阳能充电，2：放电
+  "S2B":0,  // 0:空闲,1:太阳充电，2：放电
+  "I2B":0,  // 0:空闲,1:太阳能取电，
+  "R2B":0,  // 0:空闲,1:电网取电，
+  "B2L":0,  // 0:空闲,1:电网取电，2：太阳能取电
+  "L2R":0,  // 0:空闲,     2：太阳能发电
+ }
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取能源服务导图信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取照明服务概要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量执行设备命令（控制）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/m-home/rest/v1/devices/me/actions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>devices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>":["xxxx-device-uuid-xxxx"]
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>command</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": {
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmdName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "set_action",
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmdCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "0001",
+        "options": [
+            "-a"
+        ],
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>paramters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": {
+            "cmdData": 256
+        }
+    }
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/m-home/rest/v1/services/lighting</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    {
+        "locationName": "Ground Floor, Living Room", //区域名称
+        "locationIcon": "ic_living_room.png", //区域图标
+        "on": 1, //开启的设备数
+        "off": 2, //关闭的设备数
+        "devices": [//设备的UUID
+            "xxxx-device-uuid1-xxxx",
+            "xxxx-device-uuid2-xxxx",
+            "xxxx-device-uuid3-xxxx"
+        ]
+    },
+    {
+        "locationName": "Ground Floor, Cookroom",
+        "locationIcon": "ic_cookroom.png",
+        "on": 1,
+        "off": 0,
+        "devices": [
+            "xxxx-device-uuid4-xxxx"
+        ]
+    }
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "weiwiz": {
+        "MHome": {
+            "response": {
+                "settings": [
+                    {
+                        "name": "region",
+                        "value": "china", //China:中国大陆，Europe:欧洲
+                    },
+                    {
+                        "name": "language",
+                        "value": "en" //en-us：English(United States)，zh-cn：简体中文
+                    },
+                    {
+                        "name": "notify_system", //是否推送系统消息
+                        "value": "true"
+                    },
+                    {
+                        "name": "notify_scene",  //是否推送场景消息
+                        "value": "true"
+                    },
+                    {
+                        "name": "notify_device", //是否推送设备消息
+                        "value": "true"
+                    },
+                    {
+                        "name": "no_disturb",  //是否开启消息免打扰
+                        "value": "true"
+                    },
+                    {
+                        "name": "no_disturb_interval", //免打扰时段
+                        "value": "23:00~07:00"
+                    }
+                ]
+            },
+            "errorId": "",
+            "errorMsg": ""
+        }
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{
+   "name": "notify_scene",
+   "value": "true"
+}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/m-home/rest/v1/flows/me/{flowId}/settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/m-home/rest/v1/devices/me/{deviceId}/actions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>command</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": {
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmdName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "set_discover",
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmdCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "000b",
+        "options": [
+            "-a"
+        ],
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>paramters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": {
+            "mode": "ECO"
+        }
+    }
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataType = "dailyReport"&amp;&amp;timestampStart="2015-08-01T00:00:00.000Z"&amp;&amp;timestampStop="2015-09-13T00:00:00.000Z"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">markid:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">IOS-GB-EN-MeHome
+ANDROID-GB-EN-MeHome
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">versionId:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>latest
+xx-xx-xx</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "URL": "1106367174",
+    "changeLog": [
+        "1.modify the logic pf phone number checking.",
+        "2.Optimize the device add process."
+    ],
+    "updateTips": "update",
+    "updateDate": "2016-06-03",
+    "productName": "MeHome",
+    "versionCode": "1.0.3",
+    "versionName": "1.0.3"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/m-home/rest/v1/system/settings/wrappers/:markid/versions/:versionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本信息查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeBoost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeRFCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "weiwiz": {
+    "MHome": {
+      "response": {
+        "reports": [
+          {
+            "timestamp": "2015-07-23T17:00:00.000Z",
+            "type": "040300101001",
+            "uuid": "c98415a0-3274-11e5-964b-893b62d37e7c",
+            "dataType": "dailyReport",
+            "energyUsed": 9.0,
+            "energySaved": 18.0,
+            "power": 86.0
+          }
+        ]
+      },
+      "errorId": "",
+      "errorMsg": ""
+    }
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeThermostat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "weiwiz": {
+    "MHome": {
+      "response": {
+        "reports": [
+          {
+            "timestamp": "2015-07-23T17:00:00.000Z",
+            "type": "040300101001",
+            "uuid": "c98415a0-3274-11e5-964b-893b62d37e7c",
+            "dataType": "dailyReport",
+            "dis_temp": 29.0
+          }
+        ]
+      },
+      "errorId": "",
+      "errorMsg": ""
+    }
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "weiwiz": {
+        "MHome": {
+            "response": {
+                "reports": [
+                    {
+                        "timestamp": "2015-07-23T17:00:00.000Z",
+                        "type": "040300101001",
+                        "uuid": "c98415a0-3274-11e5-964b-893b62d37e7c",
+                        "dataType": "dailyReport",
+                        "effectiveVolt": 9,
+                        "effectiveCurrent": 86,
+                        "toGrid": 16,
+                        "toUser": 86,
+                        "toGridPower": 16,
+                        "toUserPower": 86
+                    }
+                ]
+            },
+            "errorId": "",
+            "errorMsg": ""
+        }
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "type": "xxxx-device-uuid-xxxx",
+    "name": "设备名称",
+    "description": "反馈信息",
+    "email": "邮箱地址"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/m-home/rest/v1/flows/me/device/{deviceId}/{flowId}/actives</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>automatic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": {
+        "enable": true,
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commands</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": [
+            {
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmdName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "open",
+                "cmdCode": "0001",
+                "enable": true
+            }
+        ]
+    }
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
     "weiwiz": {
         "MHome": {
@@ -3747,12 +5671,6 @@
                     "timerId": "xxxx-timer-uuid-xxxx",
                     "mode": "PARALLEL",
                     "name": "collectionTimer",
-                    /*
-                    *自定义执行：0016080C0000
-                    *单次执行:0016080C0001
-                    *重复执行：0016080C0002
-                    */
-                    "type":"0016080C0002",//
                     "interval": 0,
                     "between": [
                         "09:00",
@@ -3897,35 +5815,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>": "collectionTimer",
-                        /*
-                        *自定义执行：0016080C0000
-                        *单次执行:0016080C0001
-                        *重复执行：0016080C0002
-                        */
-                        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>":"0016080C0002",//
+      <t>": "collectionTimer",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
                         "</t>
     </r>
     <r>
@@ -4247,1930 +6148,6 @@
             "errorId": "",
             "errorMsg": ""
         }
-    }
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>timerId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>":"xxxx-timer-uuid-xxxx"
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "PARALLEL",
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "每天",
-/*
-*自定义执行：0016080C0000
-*单次执行:0016080C0001
-*重复执行：0016080C0002
-*/
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>":"0016080C0002",//
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>enable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>":true,
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>interval</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": 0,
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>between</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": ["08:00", "12:00"],
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>weekday</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": [0, 1, 2, 3, 4, 5, 6],
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>commands</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": [
-            {
-                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uuid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "xxxx-device-uuid-xxxx",
-                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>deviceType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "",
-                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>enable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>":true,
-                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": {
-                    "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmdCode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "0001",
-                    "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmdName</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "open",
-                    "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>parameters</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": {}
-                }
-            }
-        ]
-    }</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "PARALLEL",
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "timer",
-/*
-*自定义执行：0016080C0000
-*单次执行:0016080C0001
-*重复执行：0016080C0002
-*/
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>":"0016080C0002",//
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>enable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": true,
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>interval</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": 0,
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>between</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": ["08:00", "12:00"],
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>weekday</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": [0, 1, 2, 3, 4, 5, 6],
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>commands</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": [
-            {
-                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uuid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "xxxx-device-uuid-xxxx",
-                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>deviceType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "",
-                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>enable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": true,
-                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": {
-                    "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmdCode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "0001",
-                    "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmdName</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "open",
-                    "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>parameters</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": {}
-                }
-            }
-        ]
-    }</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-    "weiwiz": {
-        "MHome": {
-            "response": {
-                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmdName</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "",
-                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmdCode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "",
-                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>result</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": {}
-            },
-            "errorId": "",
-            "errorMsg": ""
-        }
-    }
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{
-    "weiwiz": {
-        "MHome": {
-            "response": {
-                </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;deviceInfo&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-            },
-            "errorId": "",
-            "errorMsg": ""
-        }
-    }
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/m-home/rest/v1/devices/me/{deviceId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-    "weiwiz": {
-        "MHome": {
-            "response": {
-                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>automatics</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">": [
-                    {
-                        "sceneId": "xxxx-scene-uuid-xxxx",
-                        "mode": "PARALLEL",
-                        "name": "回家",
-                        "type": "0016080B0001",
-                        "description": "一切都为你准备好了",
-                        "commands": [
-                            {
-                                "uuid": "xxxx-device-uuid-xxxx",
-                                </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"description": "打开设备",
-                                "deviceName":"MeReceiver-LN-1"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-                                "deviceType": "",
-                                "cmd": {
-                                    "cmdCode": "0001",
-                                    "cmdName": "open",
-                                    "parameters": {}
-                                }
-                            }
-                        ]
-                    }
-                ]
-            },
-            "errorId": "",
-            "errorMsg": ""
-        }
-    }
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-    "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "PARALLEL",//场景模式目前固定为PARALLEL，并行模式
-    "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "回家",
-    /*
-    *0016080B0000:用户自定义场景
-    *0016080B0001:系统场景-回家
-    *0016080B0002:系统场景-离家
-    *0016080B0003:系统场景-起床
-    *0016080B0004:系统场景-睡觉
-    */
-    "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "0016080B0000",
-    "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>description</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "一切已经为你准备好了",
-    "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>notify</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>":true,//默认为true
-    "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>commands</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": [
-        {
-            "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uuid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "xxxx-device-uuid-xxxx",
-            "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>deviceType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "",
-            "description": "打开设备", 
-            "deviceName":"MeReceiver-LN-1"
-            "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": {
-                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmdCode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "0001",
-                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmdName</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "open",
-                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>parameters</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": {}
-            }
-        }
-    ]
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-    "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sceneId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "xxxx-scene-uuid-xxxx",
-    "mode": "PARALLEL",
-    "name": "回家",
-    "type": "0016080B0000",
-    "description": "一切都为你准备好了",
-    "notify":true,
-    "commands": [
-        {
-            "uuid": "xxxx-device-uuid-xxxx",
-            "deviceType": "",
-            "description": "打开设备", 
-            "deviceName":"MeReceiver-LN-1"
-            "cmd": {
-                "cmdCode": "0001",
-                "cmdName": "open",
-                "parameters": {}
-            }
-        }
-    ]
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能源服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/m-home/rest/v1/services/energy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
- "icons":{
-  "Grip":1,   // 1:空闲,2:取电，3：发电
-  "MeRFCT":1,  // 0:无设备,1:设备正常，2：设备异常
-  "PV":0,   // 0:无设备,1:设备正常
-  "MeInverter":0, // 0:无设备,1:设备正常, 2:设备异常
-  "MeStroage":0, // 0:无设备,1:设备正常, 2:设备异常
-  "MeStroageBattery":80, //设备充电百分比 
-  "MeBoost":1,     // 0:无设备,1:设备正常, 2:设备异常
-  "Load":0,  // 0:无负载,1:仅热水器负载, 2:仅其他家庭负载，3：全负载
- },
- "lines":{
-  "G2R":0,  // 0:空闲,1:电网取电，2：太阳能发电
-  "R2L":0,  // 0:空闲,1:电网取电，2：太阳能取电
-  "PV2I":0,  // 0:空闲,1：太阳能发电
-  "PV2S":0,  // 0:空闲,1:太阳能充电，2：放电
-  "S2B":0,  // 0:空闲,1:太阳充电，2：放电
-  "I2B":0,  // 0:空闲,1:太阳能取电，
-  "R2B":0,  // 0:空闲,1:电网取电，
-  "B2L":0,  // 0:空闲,1:电网取电，2：太阳能取电
-  "L2R":0,  // 0:空闲,     2：太阳能发电
- }
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取能源服务导图信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取照明服务概要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批量执行设备命令（控制）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/m-home/rest/v1/devices/me/actions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-    "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>devices</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>":["xxxx-device-uuid-xxxx"]
-    "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>command</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": {
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmdName</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "set_action",
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmdCode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "0001",
-        "options": [
-            "-a"
-        ],
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>paramters</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": {
-            "cmdData": 256
-        }
-    }
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/m-home/rest/v1/services/lighting</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[
-    {
-        "locationName": "Ground Floor, Living Room", //区域名称
-        "locationIcon": "ic_living_room.png", //区域图标
-        "on": 1, //开启的设备数
-        "off": 2, //关闭的设备数
-        "devices": [//设备的UUID
-            "xxxx-device-uuid1-xxxx",
-            "xxxx-device-uuid2-xxxx",
-            "xxxx-device-uuid3-xxxx"
-        ]
-    },
-    {
-        "locationName": "Ground Floor, Cookroom",
-        "locationIcon": "ic_cookroom.png",
-        "on": 1,
-        "off": 0,
-        "devices": [
-            "xxxx-device-uuid4-xxxx"
-        ]
-    }
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "weiwiz": {
-        "MHome": {
-            "response": {
-                "settings": [
-                    {
-                        "name": "region",
-                        "value": "china", //China:中国大陆，Europe:欧洲
-                    },
-                    {
-                        "name": "language",
-                        "value": "en" //en-us：English(United States)，zh-cn：简体中文
-                    },
-                    {
-                        "name": "notify_system", //是否推送系统消息
-                        "value": "true"
-                    },
-                    {
-                        "name": "notify_scene",  //是否推送场景消息
-                        "value": "true"
-                    },
-                    {
-                        "name": "notify_device", //是否推送设备消息
-                        "value": "true"
-                    },
-                    {
-                        "name": "no_disturb",  //是否开启消息免打扰
-                        "value": "true"
-                    },
-                    {
-                        "name": "no_disturb_interval", //免打扰时段
-                        "value": "23:00~07:00"
-                    }
-                ]
-            },
-            "errorId": "",
-            "errorMsg": ""
-        }
-    }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{
-   "name": "notify_scene",
-   "value": "true"
-}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/m-home/rest/v1/flows/me/{flowId}/settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/m-home/rest/v1/devices/me/{deviceId}/actions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-    "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>command</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": {
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmdName</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "set_discover",
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmdCode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "000b",
-        "options": [
-            "-a"
-        ],
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>paramters</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": {
-            "mode": "ECO"
-        }
-    }
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataType = "dailyReport"&amp;&amp;timestampStart="2015-08-01T00:00:00.000Z"&amp;&amp;timestampStop="2015-09-13T00:00:00.000Z"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">markid:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">IOS-GB-EN-MeHome
-ANDROID-GB-EN-MeHome
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">versionId:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>latest
-xx-xx-xx</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "URL": "1106367174",
-    "changeLog": [
-        "1.modify the logic pf phone number checking.",
-        "2.Optimize the device add process."
-    ],
-    "updateTips": "update",
-    "updateDate": "2016-06-03",
-    "productName": "MeHome",
-    "versionCode": "1.0.3",
-    "versionName": "1.0.3"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/m-home/rest/v1/system/settings/wrappers/:markid/versions/:versionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本信息查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MeBoost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MeRFCT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "weiwiz": {
-    "MHome": {
-      "response": {
-        "reports": [
-          {
-            "timestamp": "2015-07-23T17:00:00.000Z",
-            "type": "040300101001",
-            "uuid": "c98415a0-3274-11e5-964b-893b62d37e7c",
-            "dataType": "dailyReport",
-            "energyUsed": 9.0,
-            "energySaved": 18.0,
-            "power": 86.0
-          }
-        ]
-      },
-      "errorId": "",
-      "errorMsg": ""
-    }
-  }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MeThermostat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "weiwiz": {
-    "MHome": {
-      "response": {
-        "reports": [
-          {
-            "timestamp": "2015-07-23T17:00:00.000Z",
-            "type": "040300101001",
-            "uuid": "c98415a0-3274-11e5-964b-893b62d37e7c",
-            "dataType": "dailyReport",
-            "dis_temp": 29.0
-          }
-        ]
-      },
-      "errorId": "",
-      "errorMsg": ""
-    }
-  }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "weiwiz": {
-        "MHome": {
-            "response": {
-                "reports": [
-                    {
-                        "timestamp": "2015-07-23T17:00:00.000Z",
-                        "type": "040300101001",
-                        "uuid": "c98415a0-3274-11e5-964b-893b62d37e7c",
-                        "dataType": "dailyReport",
-                        "effectiveVolt": 9,
-                        "effectiveCurrent": 86,
-                        "toGrid": 16,
-                        "toUser": 86,
-                        "toGridPower": 16,
-                        "toUserPower": 86
-                    }
-                ]
-            },
-            "errorId": "",
-            "errorMsg": ""
-        }
-    }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "type": "xxxx-device-uuid-xxxx",
-    "name": "设备名称",
-    "description": "反馈信息",
-    "email": "邮箱地址"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/m-home/rest/v1/flows/me/device/{deviceId}/{flowId}/actives</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-    "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>automatic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": {
-        "enable": true,
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>commands</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": [
-            {
-                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmdName</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "open",
-                "cmdCode": "0001",
-                "enable": true
-            }
-        ]
     }
 }</t>
     </r>
@@ -6968,22 +6945,22 @@
     </row>
     <row r="3" spans="1:10" ht="172.8">
       <c r="A3" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="10"/>
@@ -6991,7 +6968,7 @@
         <v>200</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -7273,7 +7250,7 @@
         <v>200</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="57.6">
@@ -7295,7 +7272,7 @@
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I11" s="8">
         <v>200</v>
@@ -7689,7 +7666,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>59</v>
@@ -7705,7 +7682,7 @@
         <v>200</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="28.8">
@@ -7735,13 +7712,13 @@
     <row r="8" spans="1:13" ht="187.2">
       <c r="A8" s="32"/>
       <c r="B8" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>59</v>
@@ -7749,13 +7726,13 @@
       <c r="F8" s="11"/>
       <c r="G8" s="8"/>
       <c r="H8" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I8" s="8">
         <v>200</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="187.2">
@@ -7767,7 +7744,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>59</v>
@@ -7777,13 +7754,13 @@
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I9" s="8">
         <v>200</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="302.39999999999998">
@@ -7884,8 +7861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7973,7 +7950,7 @@
         <v>200</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="K3" s="21" t="s">
         <v>91</v>
@@ -8002,7 +7979,7 @@
         <v>200</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="374.4">
@@ -8024,7 +8001,7 @@
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I5" s="8">
         <v>200</v>
@@ -8052,7 +8029,7 @@
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I6" s="8">
         <v>200</v>
@@ -8092,7 +8069,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>59</v>
@@ -8102,7 +8079,7 @@
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I8" s="8">
         <v>200</v>
@@ -8212,7 +8189,7 @@
         <v>200</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K3" s="21" t="s">
         <v>95</v>
@@ -8261,7 +8238,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I5" s="8">
         <v>200</v>
@@ -8289,7 +8266,7 @@
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I6" s="8">
         <v>200</v>
@@ -8359,7 +8336,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>59</v>
@@ -8697,13 +8674,13 @@
         <v>48</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="345.6">
@@ -8723,7 +8700,7 @@
         <v>59</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I3" s="7">
         <v>200</v>
@@ -8732,13 +8709,13 @@
         <v>80</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -8840,7 +8817,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I3" s="8">
         <v>200</v>
@@ -8947,16 +8924,16 @@
     </row>
     <row r="4" spans="1:10" s="8" customFormat="1" ht="303.60000000000002">
       <c r="A4" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>59</v>
@@ -8966,21 +8943,21 @@
         <v>200</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="8" customFormat="1" ht="290.39999999999998">
       <c r="A5" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>59</v>
@@ -8990,7 +8967,7 @@
         <v>200</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/MeOcer APIs(HTTP).xlsx
+++ b/MeOcer APIs(HTTP).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="210">
   <si>
     <t>/m-home/rest/v1/users</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1031,54 +1031,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>:device-item-name</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>deviceId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:xxxx-device-uuid-xxxx
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>flowId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:xxxx-flow-uuid-xxxx</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1516,10 +1468,6 @@
   </si>
   <si>
     <t>查询设备指定实时指标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/m-home/rest/v1/flows/me/device/{deviceId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3736,751 +3684,6 @@
   </si>
   <si>
     <t>/m-home/rest/v1/flows/me/device/{deviceId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>timerId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>":"xxxx-timer-uuid-xxxx"
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "PARALLEL",
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "每天",
-/*
-*自定义执行：0016080C0000
-*单次执行:0016080C0001
-*重复执行：0016080C0002
-*/
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>":"0016080C0002",//
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>enable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>":true,
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>interval</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": 0,
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>between</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": ["08:00", "12:00"],
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>weekday</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": [0, 1, 2, 3, 4, 5, 6],
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>commands</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": [
-            {
-                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uuid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "xxxx-device-uuid-xxxx",
-                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>deviceType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "",
-                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>enable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>":true,
-                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": {
-                    "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmdCode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "0001",
-                    "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmdName</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "open",
-                    "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>parameters</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": {}
-                }
-            }
-        ]
-    }</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "PARALLEL",
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "timer",
-/*
-*自定义执行：0016080C0000
-*单次执行:0016080C0001
-*重复执行：0016080C0002
-*/
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>":"0016080C0002",//
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>enable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": true,
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>interval</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": 0,
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>between</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": ["08:00", "12:00"],
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>weekday</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": [0, 1, 2, 3, 4, 5, 6],
-        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>commands</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": [
-            {
-                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>uuid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "xxxx-device-uuid-xxxx",
-                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>deviceType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "",
-                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>enable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": true,
-                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": {
-                    "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmdCode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "0001",
-                    "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmdName</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "open",
-                    "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>parameters</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": {}
-                }
-            }
-        ]
-    }</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5659,6 +4862,721 @@
         ]
     }
 }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/m-home/rest/v1/flows/me/device/{deviceId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>timerId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>":"xxxx-timer-uuid-xxxx"
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "PARALLEL",
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "每天",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>":true,
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": 0,
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>between</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": ["08:00", "12:00"],
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>weekday</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": [0, 1, 2, 3, 4, 5, 6],
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commands</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": [
+            {
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uuid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "xxxx-device-uuid-xxxx",
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deviceType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "",
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>":true,
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": {
+                    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmdCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "0001",
+                    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmdName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "open",
+                    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parameters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": {}
+                }
+            }
+        ]
+    }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "PARALLEL",
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "timer",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": true,
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": 0,
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>between</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": ["08:00", "12:00"],
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>weekday</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": [0, 1, 2, 3, 4, 5, 6],
+        "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commands</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": [
+            {
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uuid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "xxxx-device-uuid-xxxx",
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deviceType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "",
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": true,
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": {
+                    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmdCode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "0001",
+                    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmdName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": "open",
+                    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parameters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>": {}
+                }
+            }
+        ]
+    }</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5718,187 +5636,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>{
+    <t>{
     "weiwiz": {
         "MHome": {
             "response": {
-                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>automatics</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": [
-                    {
-                        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>timerId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "xxxx-timer-uuid-xxxx",
-                        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "PARALLEL",
-                        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "collectionTimer",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-                        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>interval</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": 0,
-                        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>between</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": [
-                            "9:00",
+                "automatics": {
+                    "timerId": "xxxx-timer-uuid-xxxx",
+                    "actionTime": "",
+                    "actionCycle": "",
+                    "enable": true,
+                    "detail": {
+                        "mode": "PARALLEL",
+                        "name": "collectionTimer",
+                        "interval": 0,
+                        "between": [
+                            "09:00",
                             "18:00"
                         ],
-                        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>weekday</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": [
+                        "weekday": [
                             1,
                             2,
                             3,
@@ -5907,249 +5662,146 @@
                             6,
                             0
                         ],
-                        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>commands</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": [
+                        "commands": [
                             {
-                                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmdCode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "0001",
-                                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmdName</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "open",
-                                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>parameters</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": {},
-                                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>enable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": true
+                                "uuid": "xxxx-device-uuid-xxxx",
+                                "deviceType": "",
+                                "cmd": {
+                                    "cmdCode": "0001",
+                                    "cmdName": "open",
+                                    "parameters": {}
+                                },
+                                "enable": true
                             },
                             {
-                                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmdCode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "0002",
-                                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmdName</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": "close",
-                                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>parameters</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": {},
-                                "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>enable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": true
+                                "uuid": "xxxx-device-uuid-xxxx",
+                                "deviceType": "",
+                                "cmd": {
+                                    "cmdCode": "0002",
+                                    "cmdName": "close",
+                                    "parameters": {}
+                                },
+                                "enable": true
                             }
                         ],
-                        "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>enable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>": true
+                        "enable": true
                     }
-                ]
+                }
             },
             "errorId": "",
             "errorMsg": ""
         }
     }
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deviceId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:xxxx-device-uuid-xxxx
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deviceId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:xxxx-device-uuid-xxxx</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deviceId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:xxxx-device-uuid-xxxx
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flowId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:xxxx-flow-uuid-xxxx</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6847,7 +6499,7 @@
         <v>71</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="277.2">
@@ -6855,19 +6507,19 @@
         <v>55</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3" ht="171.6">
       <c r="A4" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -6945,22 +6597,22 @@
     </row>
     <row r="3" spans="1:10" ht="172.8">
       <c r="A3" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="10"/>
@@ -6968,7 +6620,7 @@
         <v>200</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -7051,7 +6703,7 @@
     </row>
     <row r="3" spans="1:10" ht="129.6">
       <c r="A3" s="29" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>35</v>
@@ -7084,7 +6736,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>68</v>
@@ -7108,7 +6760,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>59</v>
@@ -7116,7 +6768,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I5" s="8">
         <v>200</v>
@@ -7210,17 +6862,17 @@
         <v>5</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>67</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I9" s="8">
         <v>200</v>
@@ -7230,13 +6882,13 @@
     <row r="10" spans="1:10" ht="409.6">
       <c r="A10" s="30"/>
       <c r="B10" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>154</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>50</v>
@@ -7250,19 +6902,19 @@
         <v>200</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="57.6">
       <c r="A11" s="15"/>
       <c r="B11" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>50</v>
@@ -7272,7 +6924,7 @@
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I11" s="8">
         <v>200</v>
@@ -7579,7 +7231,7 @@
     </row>
     <row r="3" spans="1:13" ht="93" customHeight="1">
       <c r="A3" s="31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>11</v>
@@ -7588,14 +7240,14 @@
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8">
@@ -7614,7 +7266,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>59</v>
@@ -7628,7 +7280,7 @@
         <v>200</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="316.8">
@@ -7640,7 +7292,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>59</v>
@@ -7648,13 +7300,13 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I5" s="8">
         <v>201</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="172.8">
@@ -7666,7 +7318,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>59</v>
@@ -7676,13 +7328,13 @@
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I6" s="8">
         <v>200</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="28.8">
@@ -7694,7 +7346,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>59</v>
@@ -7712,13 +7364,13 @@
     <row r="8" spans="1:13" ht="187.2">
       <c r="A8" s="32"/>
       <c r="B8" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>59</v>
@@ -7726,13 +7378,13 @@
       <c r="F8" s="11"/>
       <c r="G8" s="8"/>
       <c r="H8" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I8" s="8">
         <v>200</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="187.2">
@@ -7744,29 +7396,29 @@
         <v>3</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I9" s="8">
         <v>200</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="302.39999999999998">
       <c r="A10" s="32"/>
       <c r="B10" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>1</v>
@@ -7786,31 +7438,31 @@
         <v>200</v>
       </c>
       <c r="J10" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" s="21" t="s">
         <v>125</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="158.4">
       <c r="A11" s="32"/>
       <c r="B11" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>73</v>
@@ -7821,19 +7473,19 @@
         <v>200</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="374.4">
       <c r="A12" s="32"/>
       <c r="B12" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>59</v>
@@ -7842,7 +7494,7 @@
         <v>200</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -7861,8 +7513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7930,19 +7582,19 @@
         <v>17</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>70</v>
+      <c r="F3" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -7950,28 +7602,28 @@
         <v>200</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="409.6">
       <c r="A4" s="33"/>
       <c r="B4" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -7979,10 +7631,10 @@
         <v>200</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="374.4">
+    <row r="5" spans="1:11" ht="288">
       <c r="A5" s="33"/>
       <c r="B5" s="8" t="s">
         <v>18</v>
@@ -7991,26 +7643,26 @@
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>70</v>
+        <v>208</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="10" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="I5" s="8">
         <v>200</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="388.8">
+    <row r="6" spans="1:11" ht="302.39999999999998">
       <c r="A6" s="33"/>
       <c r="B6" s="8" t="s">
         <v>19</v>
@@ -8019,17 +7671,17 @@
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="10" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="I6" s="8">
         <v>200</v>
@@ -8045,13 +7697,13 @@
         <v>14</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -8069,17 +7721,17 @@
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I8" s="8">
         <v>200</v>
@@ -8168,16 +7820,16 @@
     </row>
     <row r="3" spans="1:11" ht="409.6">
       <c r="A3" s="31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>59</v>
@@ -8189,28 +7841,28 @@
         <v>200</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="409.6">
       <c r="A4" s="32"/>
       <c r="B4" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -8218,19 +7870,19 @@
         <v>200</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="403.2">
       <c r="A5" s="32"/>
       <c r="B5" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>59</v>
@@ -8238,59 +7890,59 @@
       <c r="F5" s="11"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I5" s="8">
         <v>200</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="302.39999999999998">
       <c r="A6" s="32"/>
       <c r="B6" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I6" s="8">
         <v>200</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="129.6">
       <c r="A7" s="32"/>
       <c r="B7" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -8298,25 +7950,25 @@
         <v>200</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="129.6">
       <c r="A8" s="32"/>
       <c r="B8" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="10"/>
@@ -8324,35 +7976,35 @@
         <v>200</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="129.6">
       <c r="A9" s="32"/>
       <c r="B9" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="8">
         <v>200</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -8422,7 +8074,7 @@
         <v>47</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>43</v>
@@ -8437,53 +8089,53 @@
     <row r="3" spans="1:10" ht="360">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <v>200</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="360">
       <c r="A4" s="4"/>
       <c r="B4" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8">
         <v>200</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="360">
@@ -8497,21 +8149,21 @@
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8">
         <v>200</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="230.4">
@@ -8523,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>59</v>
@@ -8535,7 +8187,7 @@
         <v>200</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="201.6">
@@ -8547,13 +8199,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -8561,7 +8213,7 @@
         <v>200</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="57.6">
@@ -8579,11 +8231,11 @@
         <v>59</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I8" s="8">
         <v>200</v>
@@ -8674,13 +8326,13 @@
         <v>48</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="345.6">
@@ -8688,7 +8340,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>1</v>
@@ -8700,22 +8352,22 @@
         <v>59</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I3" s="7">
         <v>200</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -8817,7 +8469,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I3" s="8">
         <v>200</v>
@@ -8838,7 +8490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
+    <sheetView topLeftCell="C5" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -8900,16 +8552,16 @@
     </row>
     <row r="3" spans="1:10" s="8" customFormat="1" ht="316.8">
       <c r="A3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>88</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>59</v>
@@ -8919,21 +8571,21 @@
         <v>200</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="8" customFormat="1" ht="303.60000000000002">
       <c r="A4" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>59</v>
@@ -8943,21 +8595,21 @@
         <v>200</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="8" customFormat="1" ht="290.39999999999998">
       <c r="A5" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>179</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>59</v>
@@ -8967,7 +8619,7 @@
         <v>200</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
